--- a/data/trans_orig/P15B_tráfico-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B_tráfico-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6951</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3234</v>
+        <v>3029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12228</v>
+        <v>12431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2761244301776081</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1284838381153386</v>
+        <v>0.1203065590426552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4857300172836329</v>
+        <v>0.4938196595766443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>4961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1861</v>
+        <v>1879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10385</v>
+        <v>10246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1089694451070457</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0408744416653281</v>
+        <v>0.04126808426437201</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2281017738715802</v>
+        <v>0.2250384935702019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>11912</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6794</v>
+        <v>6717</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18877</v>
+        <v>19196</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1684859736315063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09609891445950416</v>
+        <v>0.09500942738025171</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2669992792867514</v>
+        <v>0.2715070529700179</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>18223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12946</v>
+        <v>12743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21940</v>
+        <v>22145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7238755698223919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.514269982716367</v>
+        <v>0.5061803404233558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8715161618846619</v>
+        <v>0.8796934409573448</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>40567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35143</v>
+        <v>35282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43667</v>
+        <v>43649</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8910305548929544</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.77189822612842</v>
+        <v>0.7749615064297981</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9591255583346719</v>
+        <v>0.958731915735628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -857,19 +857,19 @@
         <v>58790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51825</v>
+        <v>51506</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63908</v>
+        <v>63985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8315140263684937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.733000720713249</v>
+        <v>0.7284929470299821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.903901085540496</v>
+        <v>0.9049905726197482</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>26749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18931</v>
+        <v>18590</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35744</v>
+        <v>36016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3407342369367808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.241148867251874</v>
+        <v>0.2368014377609799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4553145420165181</v>
+        <v>0.4587857106656682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>10864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6319</v>
+        <v>5623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17630</v>
+        <v>16442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3100229203058921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.180321547817116</v>
+        <v>0.1604730405364645</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5030964745590356</v>
+        <v>0.4691976769186949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1003,19 +1003,19 @@
         <v>37613</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28453</v>
+        <v>27856</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48161</v>
+        <v>48668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3312561024799829</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2505817024615176</v>
+        <v>0.2453285868418265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4241501988932941</v>
+        <v>0.4286157384138936</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>51754</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42759</v>
+        <v>42487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59572</v>
+        <v>59913</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6592657630632192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5446854579834822</v>
+        <v>0.541214289334332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7588511327481261</v>
+        <v>0.7631985622390202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1053,19 +1053,19 @@
         <v>24178</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17412</v>
+        <v>18600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28723</v>
+        <v>29419</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6899770796941078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4969035254409637</v>
+        <v>0.5308023230813053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8196784521828837</v>
+        <v>0.8395269594635358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -1074,19 +1074,19 @@
         <v>75933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65385</v>
+        <v>64878</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>85093</v>
+        <v>85690</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6687438975200171</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5758498011067059</v>
+        <v>0.5713842615861063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7494182975384824</v>
+        <v>0.7546714131581734</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2303</v>
+        <v>2134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11535</v>
+        <v>11489</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3125488231444855</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.118720282864014</v>
+        <v>0.1099873960295455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.594610081864791</v>
+        <v>0.5922011889158583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>3876</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7934</v>
+        <v>7708</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2928645395901718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07324843298570229</v>
+        <v>0.07115419517394206</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5994315821543713</v>
+        <v>0.5823656090907318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1220,19 +1220,19 @@
         <v>9940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4965</v>
+        <v>5743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16247</v>
+        <v>16839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3045657610588391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1521360546607939</v>
+        <v>0.1759769595438749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4978105870527889</v>
+        <v>0.5159774655833514</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>13337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7865</v>
+        <v>7911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17097</v>
+        <v>17266</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6874511768555145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4053899181352087</v>
+        <v>0.4077988110841416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.881279717135986</v>
+        <v>0.8900126039704545</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1270,19 +1270,19 @@
         <v>9360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5302</v>
+        <v>5528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12266</v>
+        <v>12294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7071354604098282</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4005684178456286</v>
+        <v>0.4176343909092682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9267515670142977</v>
+        <v>0.9288458048260579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1291,19 +1291,19 @@
         <v>22696</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16389</v>
+        <v>15797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27671</v>
+        <v>26893</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6954342389411609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5021894129472112</v>
+        <v>0.4840225344166481</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8478639453392062</v>
+        <v>0.8240230404561251</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>39763</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3230764347150515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>19701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2100223889760512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1437,19 +1437,19 @@
         <v>59465</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2741784395234172</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>83314</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72047</v>
+        <v>71640</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93669</v>
+        <v>93163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6769235652849485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5853790109781448</v>
+        <v>0.5820783032419826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.761060211124713</v>
+        <v>0.7569471658744694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1487,19 +1487,19 @@
         <v>74105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65235</v>
+        <v>65632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81453</v>
+        <v>81274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7899776110239487</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6954275782677825</v>
+        <v>0.6996602712596148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8683095499919603</v>
+        <v>0.866404206720479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>153</v>
@@ -1508,19 +1508,19 @@
         <v>157418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142987</v>
+        <v>143596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170186</v>
+        <v>171471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7258215604765827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6592805349894755</v>
+        <v>0.6620900494762944</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7846896107074846</v>
+        <v>0.7906133383251815</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>18403</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10902</v>
+        <v>10423</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26898</v>
+        <v>27467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2398142614279388</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1420652619978484</v>
+        <v>0.1358186559571617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3505044310892997</v>
+        <v>0.3579272133404998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -1872,19 +1872,19 @@
         <v>11373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6094</v>
+        <v>5879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18756</v>
+        <v>19398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1007032309225785</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05396138541482001</v>
+        <v>0.05205375093489254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.166072709867452</v>
+        <v>0.1717581387637855</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -1893,19 +1893,19 @@
         <v>29776</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19997</v>
+        <v>19882</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40805</v>
+        <v>41783</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1569849352343356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1054262316395178</v>
+        <v>0.1048224022608536</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2151268321189262</v>
+        <v>0.2202876439618054</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>58337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49842</v>
+        <v>49273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65838</v>
+        <v>66317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7601857385720613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6494955689107004</v>
+        <v>0.6420727866595005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8579347380021517</v>
+        <v>0.8641813440428384</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -1943,19 +1943,19 @@
         <v>101564</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94181</v>
+        <v>93539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106843</v>
+        <v>107058</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8992967690774215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8339272901325478</v>
+        <v>0.8282418612362148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.94603861458518</v>
+        <v>0.9479462490651075</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -1964,19 +1964,19 @@
         <v>159901</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148872</v>
+        <v>147894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169680</v>
+        <v>169795</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8430150647656645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7848731678810738</v>
+        <v>0.7797123560381946</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8945737683604821</v>
+        <v>0.8951775977391462</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>47885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36910</v>
+        <v>36879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60188</v>
+        <v>61977</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2612619477664839</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2013817180536576</v>
+        <v>0.2012125391845323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3283877227861763</v>
+        <v>0.338146613265729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -2089,19 +2089,19 @@
         <v>27990</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20009</v>
+        <v>19319</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38621</v>
+        <v>38008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2461859991141867</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1759882371112436</v>
+        <v>0.1699231630723364</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3396990898804975</v>
+        <v>0.3343063160767185</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -2110,19 +2110,19 @@
         <v>75875</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61066</v>
+        <v>62522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91995</v>
+        <v>92968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2554903527863405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2056245656588551</v>
+        <v>0.2105272388622538</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3097708229054422</v>
+        <v>0.3130469328949907</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>135399</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>123096</v>
+        <v>121307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146374</v>
+        <v>146405</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7387380522335161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6716122772138238</v>
+        <v>0.661853386734271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7986182819463423</v>
+        <v>0.7987874608154677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -2160,19 +2160,19 @@
         <v>85703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75072</v>
+        <v>75685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93684</v>
+        <v>94374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7538140008858133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6603009101195025</v>
+        <v>0.6656936839232814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8240117628887564</v>
+        <v>0.8300768369276634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>212</v>
@@ -2181,19 +2181,19 @@
         <v>221102</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>204982</v>
+        <v>204009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>235911</v>
+        <v>234455</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7445096472136595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6902291770945578</v>
+        <v>0.6869530671050093</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7943754343411449</v>
+        <v>0.7894727611377462</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>6149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2259</v>
+        <v>2755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10763</v>
+        <v>11936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2359951275375337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0866941531470045</v>
+        <v>0.1057416173405963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4130888860350029</v>
+        <v>0.4581433755089506</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2306,19 +2306,19 @@
         <v>8911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4106</v>
+        <v>4127</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14688</v>
+        <v>14641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3096802372081126</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.142677596649992</v>
+        <v>0.143431934330972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5104447108627417</v>
+        <v>0.5088149439181676</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -2327,19 +2327,19 @@
         <v>15060</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8622</v>
+        <v>8502</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22557</v>
+        <v>22561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2746657879689087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1572583021786161</v>
+        <v>0.1550602721736911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4114017999738309</v>
+        <v>0.4114826555938608</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>19905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15291</v>
+        <v>14118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23795</v>
+        <v>23299</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7640048724624664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5869111139649972</v>
+        <v>0.5418566244910495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9133058468529955</v>
+        <v>0.8942583826594037</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -2377,19 +2377,19 @@
         <v>19864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14087</v>
+        <v>14134</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24669</v>
+        <v>24648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6903197627918874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4895552891372586</v>
+        <v>0.4911850560818322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8573224033500081</v>
+        <v>0.8565680656690275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>36</v>
@@ -2398,19 +2398,19 @@
         <v>39769</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32272</v>
+        <v>32268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46207</v>
+        <v>46327</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7253342120310913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5885982000261686</v>
+        <v>0.5885173444061392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8427416978213839</v>
+        <v>0.8449397278263089</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>72437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57711</v>
+        <v>56967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88324</v>
+        <v>88003</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.253207516676136</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.201732473690074</v>
+        <v>0.1991297441085603</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3087416948234137</v>
+        <v>0.3076195807482843</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -2523,19 +2523,19 @@
         <v>48274</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1890086961053687</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -2544,19 +2544,19 @@
         <v>120711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102778</v>
+        <v>101143</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141591</v>
+        <v>140746</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2229264098040556</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1898093735320222</v>
+        <v>0.1867900489764671</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2614881401516879</v>
+        <v>0.2599281297176599</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>213641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197754</v>
+        <v>198075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228367</v>
+        <v>229111</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7467924833238641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6912583051765863</v>
+        <v>0.692380419251716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7982675263099259</v>
+        <v>0.8008702558914402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -2594,19 +2594,19 @@
         <v>207131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>193191</v>
+        <v>194282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218457</v>
+        <v>220265</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8109913038946314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7564104620236822</v>
+        <v>0.7606811558750846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8553358158100151</v>
+        <v>0.8624144499513872</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>399</v>
@@ -2615,19 +2615,19 @@
         <v>420771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>399891</v>
+        <v>400736</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>438704</v>
+        <v>440339</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7770735901959444</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.738511859848312</v>
+        <v>0.7400718702823401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8101906264679773</v>
+        <v>0.8132099510235329</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>7520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3712</v>
+        <v>3695</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13279</v>
+        <v>13165</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1674960210062225</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08268164977501377</v>
+        <v>0.0822887233461945</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2957592751495131</v>
+        <v>0.2932352971425345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2979,19 +2979,19 @@
         <v>6453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2729</v>
+        <v>2711</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14670</v>
+        <v>13132</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08650352087736676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03658544317280286</v>
+        <v>0.03634502618411845</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1966403323401711</v>
+        <v>0.1760248820470981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -3000,19 +3000,19 @@
         <v>13973</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7984</v>
+        <v>7882</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22841</v>
+        <v>22107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.116933139990375</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06681183162189656</v>
+        <v>0.06595866665218439</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1911420340300529</v>
+        <v>0.185000938540757</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>37377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31618</v>
+        <v>31732</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41185</v>
+        <v>41202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8325039789937775</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7042407248504869</v>
+        <v>0.7067647028574656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9173183502249862</v>
+        <v>0.9177112766538055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -3050,19 +3050,19 @@
         <v>68149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59932</v>
+        <v>61470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71873</v>
+        <v>71891</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9134964791226332</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8033596676598297</v>
+        <v>0.8239751179529021</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9634145568271971</v>
+        <v>0.9636549738158815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>97</v>
@@ -3071,19 +3071,19 @@
         <v>105525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96657</v>
+        <v>97391</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111514</v>
+        <v>111616</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.883066860009625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8088579659699472</v>
+        <v>0.8149990614592424</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9331881683781046</v>
+        <v>0.9340413333478156</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>29431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20477</v>
+        <v>20608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40667</v>
+        <v>40177</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2450131233229721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1704647850771341</v>
+        <v>0.1715589584011837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3385457570525161</v>
+        <v>0.3344678085814684</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3196,19 +3196,19 @@
         <v>22376</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15198</v>
+        <v>15451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30952</v>
+        <v>31917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2606517894102448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1770361069040417</v>
+        <v>0.1799871119615931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.360558567078373</v>
+        <v>0.3717954141047569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -3217,19 +3217,19 @@
         <v>51807</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39692</v>
+        <v>39946</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65815</v>
+        <v>66084</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2515311541695459</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1927109594238381</v>
+        <v>0.1939428519765994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3195409194709638</v>
+        <v>0.320848649778288</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>90691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79455</v>
+        <v>79945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99645</v>
+        <v>99514</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7549868766770279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6614542429474839</v>
+        <v>0.6655321914185309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8295352149228659</v>
+        <v>0.8284410415988164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -3267,19 +3267,19 @@
         <v>63469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54893</v>
+        <v>53928</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70647</v>
+        <v>70394</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7393482105897552</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6394414329216275</v>
+        <v>0.6282045858952432</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8229638930959584</v>
+        <v>0.8200128880384069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>145</v>
@@ -3288,19 +3288,19 @@
         <v>154159</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140151</v>
+        <v>139882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>166274</v>
+        <v>166020</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7484688458304541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6804590805290356</v>
+        <v>0.6791513502217119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8072890405761619</v>
+        <v>0.8060571480234006</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>5709</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2053</v>
+        <v>2033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11319</v>
+        <v>11670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1853854931725313</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06666169557916947</v>
+        <v>0.06602803516785109</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3675515774463009</v>
+        <v>0.3789514587721871</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3413,19 +3413,19 @@
         <v>3540</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>914</v>
+        <v>944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8846</v>
+        <v>9861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1141765988008121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02947155765159457</v>
+        <v>0.03045536445245854</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2852833822022731</v>
+        <v>0.3180103729195998</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3434,19 +3434,19 @@
         <v>9249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4317</v>
+        <v>4357</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17311</v>
+        <v>16485</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1496594920414479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06985183028505115</v>
+        <v>0.07049591987561094</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2800976218340468</v>
+        <v>0.2667304065527952</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>25087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19477</v>
+        <v>19126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28743</v>
+        <v>28763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8146145068274687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.632448422553699</v>
+        <v>0.6210485412278131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9333383044208305</v>
+        <v>0.9339719648321489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -3484,19 +3484,19 @@
         <v>27467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22161</v>
+        <v>21146</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30093</v>
+        <v>30063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8858234011991879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7147166177977268</v>
+        <v>0.6819896270804002</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9705284423484054</v>
+        <v>0.9695446355475414</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -3505,19 +3505,19 @@
         <v>52554</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44492</v>
+        <v>45318</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57486</v>
+        <v>57446</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8503405079585521</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7199023781659533</v>
+        <v>0.7332695934472049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9301481697149488</v>
+        <v>0.9295040801243901</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>42661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33057</v>
+        <v>31479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55874</v>
+        <v>54780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2178621462643297</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.168818249908955</v>
+        <v>0.160760008813999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.285339362079686</v>
+        <v>0.2797553558334678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3630,19 +3630,19 @@
         <v>32369</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1690706121728705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -3651,19 +3651,19 @@
         <v>75030</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61342</v>
+        <v>59082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93418</v>
+        <v>92298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1937411029827125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1583958270185369</v>
+        <v>0.1525598091723703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2412234912205023</v>
+        <v>0.2383306728848302</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>153154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139941</v>
+        <v>141035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162758</v>
+        <v>164336</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7821378537356702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7146606379203141</v>
+        <v>0.7202446441665326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.831181750091045</v>
+        <v>0.839239991186001</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -3701,19 +3701,19 @@
         <v>159084</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147465</v>
+        <v>147806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168734</v>
+        <v>168853</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8309293878271296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7702410106868209</v>
+        <v>0.7720245503236532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8813355451645312</v>
+        <v>0.8819536375409399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>289</v>
@@ -3722,19 +3722,19 @@
         <v>312238</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>293850</v>
+        <v>294970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325926</v>
+        <v>328186</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8062588970172875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7587765087794976</v>
+        <v>0.7616693271151698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8416041729814631</v>
+        <v>0.8474401908276297</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>9501</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4882</v>
+        <v>5041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15901</v>
+        <v>15636</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2510509872139864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.128996897855105</v>
+        <v>0.1332068008777658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.420181049785339</v>
+        <v>0.4131701008887915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -4086,19 +4086,19 @@
         <v>8137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4873</v>
+        <v>4572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12888</v>
+        <v>12801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09627464803320013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05765113525816385</v>
+        <v>0.05409594739558718</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1524769175192768</v>
+        <v>0.1514504993301272</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4107,19 +4107,19 @@
         <v>17638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11464</v>
+        <v>11619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25933</v>
+        <v>25600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1441412286934808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09368921268401574</v>
+        <v>0.09495146901081454</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2119308587498908</v>
+        <v>0.2092134669549116</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>28342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21942</v>
+        <v>22207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32961</v>
+        <v>32802</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7489490127860133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5798189502146609</v>
+        <v>0.5868298991112086</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8710031021448948</v>
+        <v>0.8667931991222342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -4157,19 +4157,19 @@
         <v>76384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71633</v>
+        <v>71720</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79648</v>
+        <v>79949</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9037253519667999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8475230824807231</v>
+        <v>0.8485495006698727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9423488647418361</v>
+        <v>0.9459040526044128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -4178,19 +4178,19 @@
         <v>104726</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96431</v>
+        <v>96764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>110900</v>
+        <v>110745</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8558587713065191</v>
+        <v>0.8558587713065192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7880691412501092</v>
+        <v>0.7907865330450883</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9063107873159842</v>
+        <v>0.9050485309891851</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>33231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22870</v>
+        <v>23078</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45272</v>
+        <v>45401</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2388902975892953</v>
+        <v>0.2388902975892954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1644073937604216</v>
+        <v>0.1659004973398094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3254490298908643</v>
+        <v>0.3263804854408392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -4303,19 +4303,19 @@
         <v>32451</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23013</v>
+        <v>23256</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44631</v>
+        <v>44742</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2922770712661493</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2072757523952146</v>
+        <v>0.209464624892894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4019793870589835</v>
+        <v>0.4029787978150947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -4324,19 +4324,19 @@
         <v>65682</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50338</v>
+        <v>51545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81385</v>
+        <v>81044</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2625872104029771</v>
+        <v>0.262587210402977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.20124597683584</v>
+        <v>0.2060677322792197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3253658794483417</v>
+        <v>0.324002567399145</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>105875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>93834</v>
+        <v>93705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116236</v>
+        <v>116028</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7611097024107046</v>
+        <v>0.7611097024107045</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6745509701091359</v>
+        <v>0.6736195145591608</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8355926062395782</v>
+        <v>0.8340995026601906</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -4374,19 +4374,19 @@
         <v>78576</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66396</v>
+        <v>66285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88014</v>
+        <v>87771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7077229287338507</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5980206129410164</v>
+        <v>0.5970212021849054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7927242476047849</v>
+        <v>0.790535375107106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>212</v>
@@ -4395,19 +4395,19 @@
         <v>184452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>168749</v>
+        <v>169090</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>199796</v>
+        <v>198589</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7374127895970229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6746341205516583</v>
+        <v>0.6759974326008551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7987540231641601</v>
+        <v>0.7939322677207802</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>16626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9102</v>
+        <v>8900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25455</v>
+        <v>25332</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3989899000917871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2184420359103317</v>
+        <v>0.2135818968133944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6108921073320579</v>
+        <v>0.607937762520165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4520,19 +4520,19 @@
         <v>9714</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5948</v>
+        <v>5869</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14728</v>
+        <v>14192</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2756473530785198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1687872312930795</v>
+        <v>0.1665382061829555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4179408066221924</v>
+        <v>0.4027453559055711</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4541,19 +4541,19 @@
         <v>26339</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18708</v>
+        <v>17708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36534</v>
+        <v>37940</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.34247410116674</v>
+        <v>0.3424741011667399</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2432512271623569</v>
+        <v>0.2302453476659483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4750353720644788</v>
+        <v>0.4933128592425093</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>25043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16214</v>
+        <v>16337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32567</v>
+        <v>32769</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6010100999082127</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3891078926679406</v>
+        <v>0.3920622374798351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7815579640896683</v>
+        <v>0.7864181031866055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -4591,19 +4591,19 @@
         <v>25525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20511</v>
+        <v>21047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29291</v>
+        <v>29370</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7243526469214802</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5820591933778079</v>
+        <v>0.597254644094429</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8312127687069212</v>
+        <v>0.8334617938170447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -4612,19 +4612,19 @@
         <v>50569</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>40374</v>
+        <v>38968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6575258988332601</v>
+        <v>0.65752589883326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5249646279355206</v>
+        <v>0.5066871407574911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.756748772837643</v>
+        <v>0.7697546523340515</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>59357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44320</v>
+        <v>46085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77080</v>
+        <v>75133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2715103960913851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2027282007573991</v>
+        <v>0.2108037551199302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3525787206493812</v>
+        <v>0.3436754507175326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -4737,19 +4737,19 @@
         <v>50302</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39062</v>
+        <v>39040</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65154</v>
+        <v>65880</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2179561043399556</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1692536837265137</v>
+        <v>0.1691595687818404</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2823127740071041</v>
+        <v>0.2854578744258647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -4758,19 +4758,19 @@
         <v>109658</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89690</v>
+        <v>89728</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131419</v>
+        <v>131928</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2440080821813011</v>
+        <v>0.244008082181301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1995760086292353</v>
+        <v>0.1996588224079112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2924290347661527</v>
+        <v>0.2935606942811238</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>159260</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>141537</v>
+        <v>143484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174297</v>
+        <v>172532</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7284896039086149</v>
+        <v>0.7284896039086148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6474212793506187</v>
+        <v>0.6563245492824676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7972717992426011</v>
+        <v>0.7891962448800697</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -4808,19 +4808,19 @@
         <v>180486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>165634</v>
+        <v>164908</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191726</v>
+        <v>191748</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7820438956600443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.717687225992896</v>
+        <v>0.7145421255741352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8307463162734864</v>
+        <v>0.8308404312181595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>459</v>
@@ -4829,19 +4829,19 @@
         <v>339747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>317986</v>
+        <v>317477</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>359715</v>
+        <v>359677</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7559919178186991</v>
+        <v>0.755991917818699</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7075709652338475</v>
+        <v>0.7064393057188763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.800423991370765</v>
+        <v>0.8003411775920889</v>
       </c>
     </row>
     <row r="15">
